--- a/CaseAndFatalityDemographicsData/2021-08-20.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-08-20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\8.12.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\8.19.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E6A22-7F04-4F33-9FD1-6FC1A05B0C99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E736E609-C1EE-4C30-896F-2DF429A4F332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" activeTab="2" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -639,11 +639,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>3.5361647553945191E-3</v>
+        <v>3.6303993439278323E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -651,11 +651,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>1414</v>
+        <v>2021</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>1.7606116070872712E-2</v>
+        <v>2.0212223344567903E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -663,11 +663,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>3909</v>
+        <v>5370</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>4.8672070524074559E-2</v>
+        <v>5.3705907649841483E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -675,11 +675,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>15925</v>
+        <v>20390</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>0.19828670327344267</v>
+        <v>0.20392243146746142</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -687,11 +687,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>17483</v>
+        <v>21489</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.21768580429071258</v>
+        <v>0.21491364050045506</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -699,11 +699,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>15331</v>
+        <v>18595</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>0.19089064036955411</v>
+        <v>0.18597045675024251</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -711,11 +711,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>12939</v>
+        <v>15423</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.1611071682044003</v>
+        <v>0.1542469671663883</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -723,11 +723,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>4683</v>
+        <v>5596</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>5.8309364610959619E-2</v>
+        <v>5.5966156277190489E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -735,11 +735,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>3169</v>
+        <v>3845</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>3.945812010508884E-2</v>
+        <v>3.8454229965296183E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -747,11 +747,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>1923</v>
+        <v>2436</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>2.3943819805012888E-2</v>
+        <v>2.4362679894788426E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -759,11 +759,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>1274</v>
+        <v>1655</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>1.5862936261875411E-2</v>
+        <v>1.6551820700277029E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -771,11 +771,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>1966</v>
+        <v>2766</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>2.4479225032062058E-2</v>
+        <v>2.7663042934722819E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -783,11 +783,11 @@
         <v>14</v>
       </c>
       <c r="B14" s="6">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" si="0"/>
-        <v>1.618666965497491E-4</v>
+        <v>4.0004400484053244E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -796,7 +796,7 @@
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
-        <v>80313</v>
+        <v>99989</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
@@ -835,11 +835,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>27489</v>
+        <v>37491</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.34227335549661947</v>
+        <v>0.37495124463691004</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="15"/>
@@ -851,11 +851,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>51925</v>
+        <v>61229</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.64653293987274785</v>
+        <v>0.61235735930952406</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="14"/>
@@ -867,11 +867,11 @@
         <v>18</v>
       </c>
       <c r="B4" s="6">
-        <v>899</v>
+        <v>1269</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.1193704630632649E-2</v>
+        <v>1.2691396053565892E-2</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="14"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>80313</v>
+        <v>99989</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958BDC2E-149A-4610-AE3E-2ED1092370C8}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -934,11 +934,11 @@
         <v>23</v>
       </c>
       <c r="B2" s="6">
-        <v>990</v>
+        <v>1395</v>
       </c>
       <c r="C2" s="9">
         <f>B2/B8</f>
-        <v>1.2326771506480894E-2</v>
+        <v>1.395153466881357E-2</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -950,11 +950,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="6">
-        <v>13172</v>
+        <v>14755</v>
       </c>
       <c r="C3" s="9">
         <f>B3/B8</f>
-        <v>0.16400831745794578</v>
+        <v>0.14756623228555141</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="19"/>
@@ -966,11 +966,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>28758</v>
+        <v>36994</v>
       </c>
       <c r="C4" s="9">
         <f>B4/B8</f>
-        <v>0.35807403533674498</v>
+        <v>0.36998069787676646</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="19"/>
@@ -982,11 +982,11 @@
         <v>25</v>
       </c>
       <c r="B5" s="6">
-        <v>600</v>
+        <v>795</v>
       </c>
       <c r="C5" s="9">
         <f>B5/B8</f>
-        <v>7.4707706099884207E-3</v>
+        <v>7.9508745962055833E-3</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="19"/>
@@ -998,11 +998,11 @@
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>28044</v>
+        <v>32063</v>
       </c>
       <c r="C6" s="9">
         <f>B6/B8</f>
-        <v>0.34918381831085876</v>
+        <v>0.32066527318004978</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="19"/>
@@ -1014,11 +1014,11 @@
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>8749</v>
+        <v>13987</v>
       </c>
       <c r="C7" s="9">
         <f>B7/B8</f>
-        <v>0.10893628677798115</v>
+        <v>0.13988538739261319</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="19"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B8" s="1">
         <f>SUM(B2:B7)</f>
-        <v>80313</v>
+        <v>99989</v>
       </c>
       <c r="C8" s="8">
         <f>B8/B8</f>
@@ -1051,90 +1051,73 @@
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="18"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="18"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="18"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="18"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="18"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="18"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="18"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C18" s="18"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C19" s="18"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="21"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="21"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E20" s="18"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -1151,7 +1134,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1179,7 +1162,7 @@
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.511401636092271E-4</v>
+        <v>1.4887044549480815E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1191,7 +1174,7 @@
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.6449528631614745E-4</v>
+        <v>2.6052327961591427E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1203,7 +1186,7 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>6.9902325669267537E-4</v>
+        <v>6.8852581041348767E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1211,11 +1194,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>5.5921860535414029E-3</v>
+        <v>5.7501209572369642E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1223,11 +1206,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>963</v>
+        <v>1012</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>1.8193497194460714E-2</v>
+        <v>1.8832111355093231E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1235,11 +1218,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>2777</v>
+        <v>2868</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>5.246452929285296E-2</v>
+        <v>5.3370054709888717E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1247,11 +1230,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>6131</v>
+        <v>6271</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.11583004288602143</v>
+        <v>0.11669582046224274</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1259,11 +1242,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>5036</v>
+        <v>5133</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>9.5142732992008469E-2</v>
+        <v>9.5518999590606279E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1271,11 +1254,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>6430</v>
+        <v>6515</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12147890650091629</v>
+        <v>0.12123636904983438</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1283,11 +1266,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>7046</v>
+        <v>7127</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.13311669909882679</v>
+        <v>0.13262495813018721</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1295,11 +1278,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>6931</v>
+        <v>7015</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.13094405924694413</v>
+        <v>0.13054077189325988</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1307,11 +1290,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>17262</v>
+        <v>17429</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.3261226880278098</v>
+        <v>0.3243328743161264</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1332,7 +1315,7 @@
       </c>
       <c r="B15" s="7">
         <f>SUM(B2:B14)</f>
-        <v>52931</v>
+        <v>53738</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -1349,7 +1332,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1370,11 +1353,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>22195</v>
+        <v>22536</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.41931949141334945</v>
+        <v>0.41936804495887453</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1382,11 +1365,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>30735</v>
+        <v>31201</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58066161606619937</v>
+        <v>0.58061334623543859</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1398,7 +1381,7 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.8892520451153387E-5</v>
+        <v>1.8608805686851018E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1407,7 +1390,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>52931</v>
+        <v>53738</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
@@ -1423,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1448,11 +1431,11 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>1105</v>
+        <v>1120</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>2.0876235098524494E-2</v>
+        <v>2.0841862369273139E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1460,11 +1443,11 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>5387</v>
+        <v>5482</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.10177400767036331</v>
+        <v>0.10201347277531728</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1472,11 +1455,11 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>24389</v>
+        <v>24668</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.46076968128317997</v>
+        <v>0.4590420186832409</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1484,11 +1467,11 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>5.5732935330902499E-3</v>
+        <v>5.5640329003684543E-3</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -1497,11 +1480,11 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>21732</v>
+        <v>22146</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.41057225444446543</v>
+        <v>0.41211061074100264</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1513,7 +1496,7 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>4.3452797037652792E-4</v>
+        <v>4.280025307975734E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1522,7 +1505,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>52931</v>
+        <v>53738</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
